--- a/孟卫波/课程计划.xlsx
+++ b/孟卫波/课程计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>日期</t>
   </si>
@@ -31,6 +31,84 @@
   </si>
   <si>
     <t>web</t>
+  </si>
+  <si>
+    <t>JDBC数据库连接篇</t>
+  </si>
+  <si>
+    <t>JDBC基础：Connection接口,Statement接口,PreparedStatement接口,DriverManager类,ResultSet接口</t>
+  </si>
+  <si>
+    <t>分析SQL异常,事务处理,大对象读写操作,JDBC高级封装技术。业界流行的数据库框架，高级数据库连接设计，数据源</t>
+  </si>
+  <si>
+    <t>连接池技术，DBCP连接池使用、C3P0连接池使用；使用设计模式开发连接池；详细扩展与测试池效率；</t>
+  </si>
+  <si>
+    <t>HSSF/XSSF,Java操作Office文档(Excel)读写Excel/使用POI实现数据库数据的导入导出</t>
+  </si>
+  <si>
+    <t>Java反射技术篇</t>
+  </si>
+  <si>
+    <t>Class类与Java反射,Method，Field，Constructor，Proxy,定义Annotation类型,@interface,访问Annotation信@Retention,JDK动态代理实现AOP编程</t>
+  </si>
+  <si>
+    <t>XML解析</t>
+  </si>
+  <si>
+    <t>XML的概念与基本作用、XML的基本语法、XML的约束模式、DTD、XMLSchema、名称空间。</t>
+  </si>
+  <si>
+    <t>页面表现技术篇-HTML</t>
+  </si>
+  <si>
+    <t>XML解析介绍、SAX解析、DOM解析、DOM4J CURD操作、XPath的使用。</t>
+  </si>
+  <si>
+    <t>HTML语言，HTML语言背景知识、整体结构、文件标签、排版标签、块标签、字体标签、img图像标签,有序与无序列表、超链接标签、表格标签、表单标签（form标签、input标签、select标签等）、分区标签、头标签</t>
+  </si>
+  <si>
+    <t>页面表现技术篇-CSS</t>
+  </si>
+  <si>
+    <t>CSS介绍、CSS导入方式（内部样式表、内联样式表、外部样式表）、五大CSS选择器（ID选择器、类选择器、元素选择器、属性选择器、伪类等）、样式属性介绍</t>
+  </si>
+  <si>
+    <t>盒子模型/园角/图片样式切割/CSS优化/Hbuilder工具的使用</t>
+  </si>
+  <si>
+    <t>页面表现技术篇-JavaScript页面脚本</t>
+  </si>
+  <si>
+    <t>JS脚本数据类型定义，表达式，运算符,创建对象，数组，函数,正则应用</t>
+  </si>
+  <si>
+    <t>DOM树操作,使用Model操作Data,node.js核心思想,事件流概念</t>
+  </si>
+  <si>
+    <t>JS对象/继承/回调</t>
+  </si>
+  <si>
+    <t>页面表现技术篇-HTML5与CSS3</t>
+  </si>
+  <si>
+    <t>HTML5/CSS3/新的输入元素email、number等/canvas/html5拖放/html5地理定位/video/audio多媒体</t>
+  </si>
+  <si>
+    <t>本地存储技术/localStorage/sessionStorage/websql的开发</t>
+  </si>
+  <si>
+    <t>页面表现技术篇-JQuery</t>
+  </si>
+  <si>
+    <t>JQuery及其选择器：认识JQuery、选择器介绍、css选择器、JQuery选择器及其优势势、基本选择器、层次选择器、过滤选择器、表单选择器、选择器练习小案例等；</t>
+  </si>
+  <si>
+    <t>JQuery操作DOM,jQuery中的事件、加载DOM、事件绑定,JQuery中的动画特效，jquery使用插件；</t>
+  </si>
+  <si>
+    <t>JQueryEasyUI应用，拖动特效，菜单与按钮特效，树形结构，表单，布局管理，数据网格应用</t>
   </si>
   <si>
     <t>JavaWeb篇</t>
@@ -137,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -181,7 +259,90 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,45 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,72 +372,27 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -337,181 +415,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,41 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +644,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,16 +678,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,172 +723,184 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,259 +1246,483 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="19.5" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="2:4">
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="35.25" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="18" spans="2:4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" ht="35.25" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="18" spans="2:4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" ht="35.25" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="18" spans="2:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="35.25" spans="2:4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="35.25" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" ht="18" spans="2:4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" ht="18" spans="2:4">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" ht="35.25" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="35.25" spans="2:4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" ht="21" spans="2:4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" ht="18" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" ht="20.25" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="52.5" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" ht="21" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="35.25" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" ht="35.25" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" ht="18" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" ht="18" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" ht="69.75" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" ht="69.75" spans="1:4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" ht="18" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" ht="18" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="35.25" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" ht="35.25" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" ht="18" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="18" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" ht="35.25" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" ht="69.75" spans="1:4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" ht="35.25" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="35.25" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="34.5" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" ht="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" ht="21" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" ht="21" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" ht="35.25" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" ht="21" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" ht="21" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="35.25" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="21" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" ht="20.25" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" ht="69.75" spans="1:5">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" ht="35.25" spans="1:5">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" ht="69.75" spans="1:5">
+      <c r="A32" s="10"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" ht="69.75" spans="1:5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" ht="35.25" spans="1:5">
+      <c r="A34" s="10"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" ht="18" spans="1:5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" ht="69.75" spans="1:5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C13:C14"/>
+  <mergeCells count="25">
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B2:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
